--- a/data/trans_orig/P6716-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P6716-Dificultad-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>12158</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>6163</v>
+        <v>6324</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>21869</v>
+        <v>22069</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04354934014269952</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02207348865086033</v>
+        <v>0.02265074645660893</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07833056054964049</v>
+        <v>0.07904723873359648</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>8</v>
@@ -763,19 +763,19 @@
         <v>8032</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3869</v>
+        <v>3914</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>15222</v>
+        <v>14711</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0361379605063683</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01740802057112824</v>
+        <v>0.01761045121255051</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06848863009209552</v>
+        <v>0.06618937429532512</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>19</v>
@@ -784,19 +784,19 @@
         <v>20190</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>12112</v>
+        <v>12445</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>30369</v>
+        <v>31751</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04026436146966726</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02415508568690253</v>
+        <v>0.02481858469479118</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06056350822225597</v>
+        <v>0.06332018622895957</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>20235</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>12141</v>
+        <v>12543</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>30275</v>
+        <v>32235</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.07247786865650195</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.04348650175965283</v>
+        <v>0.04492637428643828</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1084421051635032</v>
+        <v>0.1154608536135431</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>14</v>
@@ -834,19 +834,19 @@
         <v>15921</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>8758</v>
+        <v>8954</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>26601</v>
+        <v>25334</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.07163248676043961</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.03940302228601907</v>
+        <v>0.0402869100374661</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1196852532538635</v>
+        <v>0.1139868066810885</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>32</v>
@@ -855,19 +855,19 @@
         <v>36156</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>24911</v>
+        <v>25484</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>50092</v>
+        <v>50562</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.07210316628860286</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.04967947581359104</v>
+        <v>0.05082047784317699</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.09989617177134465</v>
+        <v>0.1008336517169298</v>
       </c>
     </row>
     <row r="6">
@@ -884,19 +884,19 @@
         <v>58861</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>46850</v>
+        <v>46709</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>75609</v>
+        <v>74366</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2108325462865882</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1678113690452936</v>
+        <v>0.1673043402799418</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2708216837241977</v>
+        <v>0.2663681650465532</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>57</v>
@@ -905,19 +905,19 @@
         <v>62667</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>50334</v>
+        <v>49558</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>77373</v>
+        <v>77025</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2819604242207122</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2264700785582625</v>
+        <v>0.2229763610630973</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3481236228145716</v>
+        <v>0.3465582706344966</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>113</v>
@@ -926,19 +926,19 @@
         <v>121529</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>104176</v>
+        <v>102928</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>142792</v>
+        <v>144894</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2423588711460313</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2077536749869825</v>
+        <v>0.2052649227553424</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2847624181770947</v>
+        <v>0.2889544539813724</v>
       </c>
     </row>
     <row r="7">
@@ -955,19 +955,19 @@
         <v>62551</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>48402</v>
+        <v>49133</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>78097</v>
+        <v>77314</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2240475248032398</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.173368065147333</v>
+        <v>0.175988732477257</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2797313421746733</v>
+        <v>0.2769287202841594</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>37</v>
@@ -976,19 +976,19 @@
         <v>39050</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>29146</v>
+        <v>28881</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>54281</v>
+        <v>51526</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.175700045810567</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1311389858563</v>
+        <v>0.129943033023847</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2442266376187065</v>
+        <v>0.2318304752867329</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>96</v>
@@ -997,19 +997,19 @@
         <v>101601</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>84081</v>
+        <v>86132</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>121464</v>
+        <v>125170</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2026182572202848</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1676787509494179</v>
+        <v>0.1717682335906867</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2422293960589713</v>
+        <v>0.2496203766300665</v>
       </c>
     </row>
     <row r="8">
@@ -1026,19 +1026,19 @@
         <v>125380</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>107111</v>
+        <v>107614</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>142315</v>
+        <v>141455</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4490927201109705</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3836561267580054</v>
+        <v>0.385457269494529</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5097505589109991</v>
+        <v>0.5066726917085786</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>88</v>
@@ -1047,19 +1047,19 @@
         <v>96586</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>82799</v>
+        <v>82078</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>112668</v>
+        <v>112431</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4345690827019129</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3725398218592729</v>
+        <v>0.3692936266175775</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5069293294256881</v>
+        <v>0.5058613647606457</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>205</v>
@@ -1068,19 +1068,19 @@
         <v>221966</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>198395</v>
+        <v>199271</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>244243</v>
+        <v>245372</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4426553438754137</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3956493656409963</v>
+        <v>0.397395277578409</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4870813188669752</v>
+        <v>0.4893329626921744</v>
       </c>
     </row>
     <row r="9">
@@ -1172,19 +1172,19 @@
         <v>11103</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>5872</v>
+        <v>5791</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>19327</v>
+        <v>19432</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02913212144932197</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01540849710528137</v>
+        <v>0.01519453926156749</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05071098752233626</v>
+        <v>0.0509875510487052</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>7</v>
@@ -1193,19 +1193,19 @@
         <v>7466</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>3083</v>
+        <v>3187</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>14070</v>
+        <v>14838</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02938090250819849</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01213125841790857</v>
+        <v>0.01254011598332052</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.055371680767934</v>
+        <v>0.05839305978292011</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>18</v>
@@ -1214,19 +1214,19 @@
         <v>18569</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>11218</v>
+        <v>11428</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>28922</v>
+        <v>28786</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02923164020867344</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01766011124529992</v>
+        <v>0.01799037692913417</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04553057164627733</v>
+        <v>0.04531575015160123</v>
       </c>
     </row>
     <row r="11">
@@ -1243,19 +1243,19 @@
         <v>14460</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>8234</v>
+        <v>8308</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>22745</v>
+        <v>23859</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.03794100016324218</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.02160355620409075</v>
+        <v>0.02179919987234513</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.05967923827129461</v>
+        <v>0.06260188305730298</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>14</v>
@@ -1264,19 +1264,19 @@
         <v>16441</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>8763</v>
+        <v>9787</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>27239</v>
+        <v>27183</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.06470300474710244</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.03448651617070134</v>
+        <v>0.03851656449531387</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1071949679217085</v>
+        <v>0.1069755863300761</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>28</v>
@@ -1285,19 +1285,19 @@
         <v>30902</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>20751</v>
+        <v>21168</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>45289</v>
+        <v>43481</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.04864648355483007</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.03266721707015165</v>
+        <v>0.0333238623534968</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.07129612629960945</v>
+        <v>0.06845008352736026</v>
       </c>
     </row>
     <row r="12">
@@ -1314,19 +1314,19 @@
         <v>67579</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>54334</v>
+        <v>53235</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>83742</v>
+        <v>83975</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1773179322118437</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1425634378402168</v>
+        <v>0.1396815409157297</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2197250463456264</v>
+        <v>0.2203379439770537</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>54</v>
@@ -1335,19 +1335,19 @@
         <v>60036</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>48008</v>
+        <v>47206</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>75138</v>
+        <v>75963</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2362630016339214</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1889285272054108</v>
+        <v>0.1857732241544144</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2956942358779651</v>
+        <v>0.2989423163847212</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>120</v>
@@ -1356,19 +1356,19 @@
         <v>127615</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>106342</v>
+        <v>108228</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>149028</v>
+        <v>150520</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2008974611569443</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1674076416702866</v>
+        <v>0.1703769065415693</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.234605754638493</v>
+        <v>0.2369547174476295</v>
       </c>
     </row>
     <row r="13">
@@ -1385,19 +1385,19 @@
         <v>102378</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>84619</v>
+        <v>85900</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>120219</v>
+        <v>120827</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2686231014784318</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2220277137517578</v>
+        <v>0.225388097857241</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3154356971689642</v>
+        <v>0.3170308286372769</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>54</v>
@@ -1406,19 +1406,19 @@
         <v>55001</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>42749</v>
+        <v>43869</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>69404</v>
+        <v>69101</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.216449423812293</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1682304680154546</v>
+        <v>0.1726406657389037</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.27313010502991</v>
+        <v>0.2719374080387205</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>152</v>
@@ -1427,19 +1427,19 @@
         <v>157379</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>136435</v>
+        <v>136913</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>180203</v>
+        <v>180687</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2477523016852893</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2147821292504785</v>
+        <v>0.2155340897732135</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2836825594699651</v>
+        <v>0.2844446175795464</v>
       </c>
     </row>
     <row r="14">
@@ -1456,19 +1456,19 @@
         <v>185600</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>163810</v>
+        <v>166771</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>203986</v>
+        <v>206935</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4869858446971604</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4298121688437083</v>
+        <v>0.4375813705598182</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5352272288402006</v>
+        <v>0.5429649050440136</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>104</v>
@@ -1477,19 +1477,19 @@
         <v>115162</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>99438</v>
+        <v>99625</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>130278</v>
+        <v>131641</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4532036672984847</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3913215858038877</v>
+        <v>0.3920601181349911</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5126902865605476</v>
+        <v>0.518054620501037</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>282</v>
@@ -1498,19 +1498,19 @@
         <v>300762</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>275162</v>
+        <v>273091</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>325281</v>
+        <v>326049</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4734721133942629</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4331714886863153</v>
+        <v>0.4299105445636334</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5120707696000709</v>
+        <v>0.5132798825948353</v>
       </c>
     </row>
     <row r="15">
@@ -1602,19 +1602,19 @@
         <v>10314</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>5177</v>
+        <v>5045</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>18664</v>
+        <v>18986</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02262667439151842</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01135707428667365</v>
+        <v>0.01106772379105473</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04094575769106811</v>
+        <v>0.04165131058348039</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>4</v>
@@ -1623,19 +1623,19 @@
         <v>3916</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1076</v>
+        <v>971</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>9584</v>
+        <v>9949</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01405367918757061</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.003862374096865653</v>
+        <v>0.003484388423254441</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03439249301216327</v>
+        <v>0.03570244486004304</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>14</v>
@@ -1644,19 +1644,19 @@
         <v>14230</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>7978</v>
+        <v>7731</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>23420</v>
+        <v>23442</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01937408334735392</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01086198561256359</v>
+        <v>0.01052578608902472</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0318863378270646</v>
+        <v>0.03191636899191834</v>
       </c>
     </row>
     <row r="17">
@@ -1673,19 +1673,19 @@
         <v>15841</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>8674</v>
+        <v>9211</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>27049</v>
+        <v>26282</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.03475287165456284</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01902862040733622</v>
+        <v>0.0202077540038136</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.05934091392029384</v>
+        <v>0.05765912300741478</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>7</v>
@@ -1694,19 +1694,19 @@
         <v>7117</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3020</v>
+        <v>3056</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>14193</v>
+        <v>13447</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.0255402636015119</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01083597792325217</v>
+        <v>0.01096711201576657</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.05093433843861769</v>
+        <v>0.04825485749986321</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>21</v>
@@ -1715,19 +1715,19 @@
         <v>22958</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>14535</v>
+        <v>14143</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>34678</v>
+        <v>34957</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.03125761174435635</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01979003175561024</v>
+        <v>0.01925528803778168</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.04721476774213533</v>
+        <v>0.04759368495290195</v>
       </c>
     </row>
     <row r="18">
@@ -1744,19 +1744,19 @@
         <v>74731</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>59625</v>
+        <v>60333</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>93093</v>
+        <v>91837</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1639487066651174</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1308072541167595</v>
+        <v>0.1323620977794191</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2042329136120373</v>
+        <v>0.2014756255840123</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>49</v>
@@ -1765,19 +1765,19 @@
         <v>52197</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>39207</v>
+        <v>40229</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>66628</v>
+        <v>65852</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1873119797895916</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1406961476180972</v>
+        <v>0.1443655623913509</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2390994687597966</v>
+        <v>0.2363148976888138</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>123</v>
@@ -1786,19 +1786,19 @@
         <v>126928</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>105542</v>
+        <v>106111</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>148260</v>
+        <v>148569</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1728127233966374</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1436961413285706</v>
+        <v>0.1444710860094564</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2018559646831768</v>
+        <v>0.2022767939748977</v>
       </c>
     </row>
     <row r="19">
@@ -1815,19 +1815,19 @@
         <v>115243</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>96992</v>
+        <v>96945</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>133930</v>
+        <v>134418</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2528252018658217</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2127854703327213</v>
+        <v>0.2126830670546669</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2938221210008031</v>
+        <v>0.2948917591279657</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>82</v>
@@ -1836,19 +1836,19 @@
         <v>83089</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>67876</v>
+        <v>69541</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>98064</v>
+        <v>99519</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2981710663870803</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2435765889048589</v>
+        <v>0.2495546021849256</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3519091001111577</v>
+        <v>0.3571299533229702</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>193</v>
@@ -1857,19 +1857,19 @@
         <v>198332</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>176031</v>
+        <v>174551</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>225160</v>
+        <v>222282</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2700294052186736</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2396663157459202</v>
+        <v>0.2376522776846002</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.306555928015696</v>
+        <v>0.3026371779659881</v>
       </c>
     </row>
     <row r="20">
@@ -1886,19 +1886,19 @@
         <v>239691</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>215102</v>
+        <v>217623</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>260550</v>
+        <v>260106</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.5258465454229797</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4719020320216488</v>
+        <v>0.47743244436333</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5716063421905204</v>
+        <v>0.5706329552282199</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>121</v>
@@ -1907,19 +1907,19 @@
         <v>132343</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>113783</v>
+        <v>115822</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>148265</v>
+        <v>148476</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.4749230110342456</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4083198085714924</v>
+        <v>0.4156345547309303</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5320615662765221</v>
+        <v>0.5328162232773547</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>342</v>
@@ -1928,19 +1928,19 @@
         <v>372034</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>343046</v>
+        <v>340649</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>398456</v>
+        <v>398599</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5065261762929787</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4670582939316593</v>
+        <v>0.463794338746488</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5424992864966524</v>
+        <v>0.542694273459584</v>
       </c>
     </row>
     <row r="21">
@@ -2032,19 +2032,19 @@
         <v>5629</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1858</v>
+        <v>1830</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>12447</v>
+        <v>13124</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01899168596729063</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.006268374805721575</v>
+        <v>0.006174737256149728</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.04199774408541546</v>
+        <v>0.04428256959494126</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>9</v>
@@ -2053,19 +2053,19 @@
         <v>9083</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>4221</v>
+        <v>4042</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>17266</v>
+        <v>15832</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.04869558097438107</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02262955301810717</v>
+        <v>0.02166747296114833</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.09255993277025869</v>
+        <v>0.08487192299893209</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>14</v>
@@ -2074,19 +2074,19 @@
         <v>14712</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>8380</v>
+        <v>8701</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>24724</v>
+        <v>24324</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.03046565889397446</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01735321550621893</v>
+        <v>0.01801825742179666</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.05119765605694665</v>
+        <v>0.05036923960409716</v>
       </c>
     </row>
     <row r="23">
@@ -2103,19 +2103,19 @@
         <v>8749</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>4045</v>
+        <v>3958</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>16776</v>
+        <v>16665</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.02951944106494326</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.01364988811935401</v>
+        <v>0.01335392571031081</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.05660625298944857</v>
+        <v>0.05623027126378109</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2</v>
@@ -2127,7 +2127,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>10817</v>
+        <v>10931</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.01708502594937455</v>
@@ -2136,7 +2136,7 @@
         <v>0</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.05798920496028639</v>
+        <v>0.05859889571121563</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>11</v>
@@ -2145,19 +2145,19 @@
         <v>11936</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>5882</v>
+        <v>6462</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>20527</v>
+        <v>21920</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.02471629513539001</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.01217967167754315</v>
+        <v>0.01338242197870767</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.04250815603879959</v>
+        <v>0.04539232316269199</v>
       </c>
     </row>
     <row r="24">
@@ -2174,19 +2174,19 @@
         <v>53348</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>39934</v>
+        <v>40444</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>68122</v>
+        <v>71631</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1800067376263845</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1347454385743168</v>
+        <v>0.1364650260152687</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2298543468382372</v>
+        <v>0.2416964333423849</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>25</v>
@@ -2195,19 +2195,19 @@
         <v>27394</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>18544</v>
+        <v>17929</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>39132</v>
+        <v>40055</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.146853707488139</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.0994123325617846</v>
+        <v>0.09611489923859161</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2097803807369163</v>
+        <v>0.2147314119456809</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>71</v>
@@ -2216,19 +2216,19 @@
         <v>80742</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>64249</v>
+        <v>64208</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>100807</v>
+        <v>99213</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1672004383126763</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.133047474150118</v>
+        <v>0.1329616519499952</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2087520009420314</v>
+        <v>0.2054503398459164</v>
       </c>
     </row>
     <row r="25">
@@ -2245,19 +2245,19 @@
         <v>71291</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>57472</v>
+        <v>57531</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>87287</v>
+        <v>88458</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2405479180726728</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1939192876327759</v>
+        <v>0.194120675209419</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2945198539432835</v>
+        <v>0.2984741351100813</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>41</v>
@@ -2266,19 +2266,19 @@
         <v>46803</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>35943</v>
+        <v>34273</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>59861</v>
+        <v>59910</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2509046181114206</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1926870644372494</v>
+        <v>0.1837313570752258</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3209068972881859</v>
+        <v>0.3211692040587166</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>106</v>
@@ -2287,19 +2287,19 @@
         <v>118094</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>99632</v>
+        <v>98713</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>140236</v>
+        <v>137210</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2445484875544196</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2063171281602308</v>
+        <v>0.2044143250990478</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.290401741114674</v>
+        <v>0.2841343526707909</v>
       </c>
     </row>
     <row r="26">
@@ -2316,19 +2316,19 @@
         <v>157352</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>137578</v>
+        <v>137531</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>175061</v>
+        <v>173837</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.5309342172687088</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4642109700007393</v>
+        <v>0.4640543479905664</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.590686639645236</v>
+        <v>0.5865572989327466</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>92</v>
@@ -2337,19 +2337,19 @@
         <v>100069</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>86462</v>
+        <v>85902</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>114705</v>
+        <v>114220</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.5364610674766848</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.463516363157468</v>
+        <v>0.4605092230011759</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6149223937839046</v>
+        <v>0.6123193023580411</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>236</v>
@@ -2358,19 +2358,19 @@
         <v>257422</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>232440</v>
+        <v>235803</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>279976</v>
+        <v>280682</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.5330691201035396</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4813372267170241</v>
+        <v>0.4883001698597272</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5797744856622629</v>
+        <v>0.5812373137557046</v>
       </c>
     </row>
     <row r="27">
@@ -2462,19 +2462,19 @@
         <v>39203</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>27875</v>
+        <v>28002</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>52820</v>
+        <v>54734</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.02775473830595161</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.0197342809732986</v>
+        <v>0.0198248434369995</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.0373944913013816</v>
+        <v>0.03874970946994656</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>28</v>
@@ -2483,19 +2483,19 @@
         <v>28497</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>19454</v>
+        <v>19499</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>41449</v>
+        <v>40378</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.03026619153381089</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.02066152719119487</v>
+        <v>0.02070942373222706</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.04402184492478931</v>
+        <v>0.04288453568458541</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>65</v>
@@ -2504,19 +2504,19 @@
         <v>67701</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>51989</v>
+        <v>52952</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>85414</v>
+        <v>84946</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.0287592543854123</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.0220847798029688</v>
+        <v>0.02249384292657921</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.03628367961457554</v>
+        <v>0.03608478685838631</v>
       </c>
     </row>
     <row r="29">
@@ -2533,19 +2533,19 @@
         <v>59285</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>44368</v>
+        <v>45050</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>77925</v>
+        <v>76536</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.04197152051614655</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.03141132255702307</v>
+        <v>0.03189372942201778</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.05516808586397164</v>
+        <v>0.05418486030190065</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>37</v>
@@ -2554,19 +2554,19 @@
         <v>42666</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>29608</v>
+        <v>29597</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>59153</v>
+        <v>57058</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.04531445292400813</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.03144567042405943</v>
+        <v>0.03143345253128983</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.06282405448729585</v>
+        <v>0.06059975931317977</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>92</v>
@@ -2575,19 +2575,19 @@
         <v>101951</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>82847</v>
+        <v>83067</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>126300</v>
+        <v>125780</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.04330860667765533</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.03519320455883699</v>
+        <v>0.03528692914206592</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.05365221644103008</v>
+        <v>0.05343120566129805</v>
       </c>
     </row>
     <row r="30">
@@ -2604,19 +2604,19 @@
         <v>254520</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>228008</v>
+        <v>225890</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>287542</v>
+        <v>284864</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1801920736579326</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1614219149102256</v>
+        <v>0.1599227124942805</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2035704982994494</v>
+        <v>0.2016746747561901</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>185</v>
@@ -2625,19 +2625,19 @@
         <v>202294</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>174850</v>
+        <v>174658</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>225829</v>
+        <v>228033</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.214849325194603</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1857025795852027</v>
+        <v>0.1854983917159828</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2398456858050555</v>
+        <v>0.2421859746019495</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>427</v>
@@ -2646,19 +2646,19 @@
         <v>456814</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>416098</v>
+        <v>416625</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>495767</v>
+        <v>498318</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1940540743722258</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.176757861976192</v>
+        <v>0.1769816878712193</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.210601182123672</v>
+        <v>0.2116850135009391</v>
       </c>
     </row>
     <row r="31">
@@ -2675,19 +2675,19 @@
         <v>351462</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>317440</v>
+        <v>318127</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>385534</v>
+        <v>387161</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2488237601941538</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2247374325034933</v>
+        <v>0.2252235824791696</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2729453608367777</v>
+        <v>0.2740971622725936</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>214</v>
@@ -2696,19 +2696,19 @@
         <v>223943</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>200903</v>
+        <v>197383</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>254032</v>
+        <v>251563</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2378426808292034</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.213372660282658</v>
+        <v>0.2096333963817041</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2697992316089584</v>
+        <v>0.2671760343137632</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>547</v>
@@ -2717,19 +2717,19 @@
         <v>575406</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>530739</v>
+        <v>533469</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>621528</v>
+        <v>617368</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2444316135797695</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.22545709801635</v>
+        <v>0.2266170637315641</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2640244584681379</v>
+        <v>0.2622572384700403</v>
       </c>
     </row>
     <row r="32">
@@ -2746,19 +2746,19 @@
         <v>708024</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>666406</v>
+        <v>670083</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>742546</v>
+        <v>748394</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.5012579073258154</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.471793879930882</v>
+        <v>0.4743970625886536</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.5256980032667466</v>
+        <v>0.5298384503242451</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>405</v>
@@ -2767,19 +2767,19 @@
         <v>444160</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>411644</v>
+        <v>412425</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>474963</v>
+        <v>477186</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.4717273495183746</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.4371926931846133</v>
+        <v>0.4380228577664478</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.5044422526866862</v>
+        <v>0.5068028831408589</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1065</v>
@@ -2788,19 +2788,19 @@
         <v>1152184</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1098655</v>
+        <v>1103033</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1204863</v>
+        <v>1202859</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.4894464509849371</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.4667073353918192</v>
+        <v>0.4685668073122355</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.5118241993584085</v>
+        <v>0.5109731545382473</v>
       </c>
     </row>
     <row r="33">
@@ -3132,19 +3132,19 @@
         <v>18597</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>10162</v>
+        <v>10987</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>28651</v>
+        <v>29276</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06334553332762333</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03461381775242625</v>
+        <v>0.03742461516393804</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.09759130936499441</v>
+        <v>0.09972020459484177</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>12</v>
@@ -3153,19 +3153,19 @@
         <v>12137</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>6641</v>
+        <v>6147</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>21131</v>
+        <v>19775</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04378058413650876</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02395308413907756</v>
+        <v>0.02217144032180097</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07622240979977314</v>
+        <v>0.07133117272060005</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>28</v>
@@ -3174,19 +3174,19 @@
         <v>30734</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>21180</v>
+        <v>20660</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>44493</v>
+        <v>42928</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05384321721630751</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03710436854495514</v>
+        <v>0.036194866061572</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07794691532075808</v>
+        <v>0.07520638912321119</v>
       </c>
     </row>
     <row r="5">
@@ -3203,19 +3203,19 @@
         <v>28182</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>19489</v>
+        <v>19389</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>39902</v>
+        <v>40034</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.0959960316888161</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.06638334533347982</v>
+        <v>0.06604235961460821</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1359152718821978</v>
+        <v>0.1363649390475084</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>22</v>
@@ -3224,19 +3224,19 @@
         <v>22898</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>14616</v>
+        <v>14967</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>34153</v>
+        <v>33843</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.08259508751210119</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.05271986938285273</v>
+        <v>0.05398739681794133</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1231936784828519</v>
+        <v>0.1220738814905976</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>48</v>
@@ -3245,19 +3245,19 @@
         <v>51080</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>38733</v>
+        <v>38175</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>68756</v>
+        <v>66248</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.08948745318378867</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.06785717149287598</v>
+        <v>0.06687951856208012</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1204542739501196</v>
+        <v>0.116060627747703</v>
       </c>
     </row>
     <row r="6">
@@ -3274,19 +3274,19 @@
         <v>83687</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>66279</v>
+        <v>68128</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>99881</v>
+        <v>101463</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2850575842869514</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2257638528081554</v>
+        <v>0.23206134992375</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.340220579539796</v>
+        <v>0.3456066354937826</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>85</v>
@@ -3295,19 +3295,19 @@
         <v>86727</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>72497</v>
+        <v>71829</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>104217</v>
+        <v>102542</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3128322413098686</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2615025865753775</v>
+        <v>0.2590943797024248</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3759211457523414</v>
+        <v>0.369879080656168</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>159</v>
@@ -3316,19 +3316,19 @@
         <v>170413</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>150639</v>
+        <v>149161</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>193834</v>
+        <v>193066</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2985471961605666</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2639052537380985</v>
+        <v>0.2613154190106403</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3395780270724415</v>
+        <v>0.3382314776161832</v>
       </c>
     </row>
     <row r="7">
@@ -3345,19 +3345,19 @@
         <v>82184</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>68144</v>
+        <v>67082</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>98477</v>
+        <v>98105</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2799387933140576</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2321164419077351</v>
+        <v>0.2284973155730491</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3354384132965451</v>
+        <v>0.3341712891988012</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>76</v>
@@ -3366,19 +3366,19 @@
         <v>78189</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>65095</v>
+        <v>63140</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>95419</v>
+        <v>92692</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2820356800520495</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2348050791386572</v>
+        <v>0.2277529197529138</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3441844378424293</v>
+        <v>0.3343490780846424</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>154</v>
@@ -3387,19 +3387,19 @@
         <v>160373</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>138575</v>
+        <v>139441</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>181537</v>
+        <v>181410</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2809572105069361</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2427689576362251</v>
+        <v>0.2442858157147619</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3180353143898913</v>
+        <v>0.3178124556966107</v>
       </c>
     </row>
     <row r="8">
@@ -3416,19 +3416,19 @@
         <v>80928</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>65414</v>
+        <v>65525</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>96577</v>
+        <v>98021</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2756620573825516</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2228148028560674</v>
+        <v>0.2231931815493682</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.328964253468651</v>
+        <v>0.333885111257558</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>75</v>
@@ -3437,19 +3437,19 @@
         <v>77280</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>64329</v>
+        <v>63044</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>93693</v>
+        <v>93256</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2787564069894718</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2320419415373943</v>
+        <v>0.2274063077845757</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3379593510979059</v>
+        <v>0.3363840751396341</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>150</v>
@@ -3458,19 +3458,19 @@
         <v>158208</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>137200</v>
+        <v>138027</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>181491</v>
+        <v>181588</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2771649229324011</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2403610549295916</v>
+        <v>0.2418091669751979</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3179535080711171</v>
+        <v>0.3181235357949624</v>
       </c>
     </row>
     <row r="9">
@@ -3562,19 +3562,19 @@
         <v>14941</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>8402</v>
+        <v>8390</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>24782</v>
+        <v>25207</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03826270239449707</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02151750803150489</v>
+        <v>0.02148677694257976</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06346676932519632</v>
+        <v>0.06455597776677399</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>15</v>
@@ -3583,19 +3583,19 @@
         <v>16649</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>9289</v>
+        <v>9387</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>25596</v>
+        <v>25820</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.06165269951205238</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03439737518468181</v>
+        <v>0.03476090009231866</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.09478286509181291</v>
+        <v>0.09560950652998763</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>28</v>
@@ -3604,19 +3604,19 @@
         <v>31590</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>20975</v>
+        <v>20745</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>44535</v>
+        <v>44418</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04782556893224659</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03175490101774319</v>
+        <v>0.03140634281274733</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06742296780682144</v>
+        <v>0.06724582419059691</v>
       </c>
     </row>
     <row r="11">
@@ -3633,19 +3633,19 @@
         <v>20035</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>12613</v>
+        <v>12878</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>30697</v>
+        <v>30459</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.0513088507261952</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.03230261744942358</v>
+        <v>0.03297979305863778</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.07861428493037169</v>
+        <v>0.07800480192631587</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>20</v>
@@ -3654,19 +3654,19 @@
         <v>20739</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>12130</v>
+        <v>13367</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>30643</v>
+        <v>31514</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.07679598069021455</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.04491778958932091</v>
+        <v>0.04949887676758748</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1134711336877766</v>
+        <v>0.1166954445279315</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>39</v>
@@ -3675,19 +3675,19 @@
         <v>40774</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>29342</v>
+        <v>29334</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>54875</v>
+        <v>54099</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.06172911803325112</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.04442206380674802</v>
+        <v>0.04441070501842052</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.08307700927485547</v>
+        <v>0.08190326115016922</v>
       </c>
     </row>
     <row r="12">
@@ -3704,19 +3704,19 @@
         <v>110752</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>94748</v>
+        <v>94543</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>128650</v>
+        <v>129141</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2836347698631531</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2426499060849129</v>
+        <v>0.2421240236191614</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3294716196744171</v>
+        <v>0.3307282114000217</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>69</v>
@@ -3725,19 +3725,19 @@
         <v>71946</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>56864</v>
+        <v>58305</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>86908</v>
+        <v>87543</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2664132453460983</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2105670443691503</v>
+        <v>0.2159015582097518</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3218166981010471</v>
+        <v>0.3241688240449889</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>173</v>
@@ -3746,19 +3746,19 @@
         <v>182698</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>159599</v>
+        <v>161281</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>205739</v>
+        <v>205516</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2765938480663064</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2416234830805602</v>
+        <v>0.2441700308673605</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3114773565418034</v>
+        <v>0.311139978796994</v>
       </c>
     </row>
     <row r="13">
@@ -3775,19 +3775,19 @@
         <v>113319</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>96628</v>
+        <v>96766</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>132196</v>
+        <v>135035</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2902098998276094</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2474635985618231</v>
+        <v>0.2478167293882089</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3385536470934086</v>
+        <v>0.3458229619584551</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>66</v>
@@ -3796,19 +3796,19 @@
         <v>65932</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>52597</v>
+        <v>52614</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>81030</v>
+        <v>80002</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2441439368236562</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1947666713628848</v>
+        <v>0.1948269120444683</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3000537914051063</v>
+        <v>0.2962445916768566</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>177</v>
@@ -3817,19 +3817,19 @@
         <v>179251</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>157798</v>
+        <v>157926</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>202417</v>
+        <v>205040</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2713760943369248</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.238897697706948</v>
+        <v>0.2390915039076199</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3064469747458627</v>
+        <v>0.3104195436763832</v>
       </c>
     </row>
     <row r="14">
@@ -3846,19 +3846,19 @@
         <v>131427</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>114352</v>
+        <v>113360</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>150801</v>
+        <v>151265</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3365837771885452</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2928554110616244</v>
+        <v>0.29031361084237</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.386198936876209</v>
+        <v>0.3873882098076999</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>93</v>
@@ -3867,19 +3867,19 @@
         <v>94787</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>78042</v>
+        <v>79806</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>110400</v>
+        <v>110125</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3509941376279785</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2889893861756637</v>
+        <v>0.2955204760319896</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4088085044775732</v>
+        <v>0.4077906029204115</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>217</v>
@@ -3888,19 +3888,19 @@
         <v>226214</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>203625</v>
+        <v>204553</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>249812</v>
+        <v>251338</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3424753706312711</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3082763780179136</v>
+        <v>0.309681691822298</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3782005890869327</v>
+        <v>0.3805106221446998</v>
       </c>
     </row>
     <row r="15">
@@ -3992,19 +3992,19 @@
         <v>6182</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2124</v>
+        <v>2083</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>13421</v>
+        <v>13953</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01355173692692963</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.004656669271579163</v>
+        <v>0.004566973209230279</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02942091589967029</v>
+        <v>0.03058674426094131</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>10</v>
@@ -4013,19 +4013,19 @@
         <v>9749</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>4692</v>
+        <v>4512</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>17198</v>
+        <v>16773</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03354256616464044</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01614521981607761</v>
+        <v>0.01552356085812451</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05917359986717165</v>
+        <v>0.05771280646032941</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>15</v>
@@ -4034,19 +4034,19 @@
         <v>15931</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>9393</v>
+        <v>8946</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>27100</v>
+        <v>26030</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02133140225981424</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01257767531579828</v>
+        <v>0.01197866154778457</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03628703720569287</v>
+        <v>0.03485408223802585</v>
       </c>
     </row>
     <row r="17">
@@ -4063,19 +4063,19 @@
         <v>25403</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>16752</v>
+        <v>16269</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>38179</v>
+        <v>37219</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.05568541482217524</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.03672106038939935</v>
+        <v>0.03566267673013651</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.08369068743505917</v>
+        <v>0.08158716961830147</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>15</v>
@@ -4084,19 +4084,19 @@
         <v>15271</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>9157</v>
+        <v>8747</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>24507</v>
+        <v>23913</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.05254211492517467</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.03150629093716692</v>
+        <v>0.0300945813156261</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.08432219413089677</v>
+        <v>0.08227809496232712</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>37</v>
@@ -4105,19 +4105,19 @@
         <v>40674</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>29306</v>
+        <v>28897</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>54694</v>
+        <v>54190</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.05446216285254582</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.03924128544141639</v>
+        <v>0.03869273275131004</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.07323580406731957</v>
+        <v>0.07256057092481495</v>
       </c>
     </row>
     <row r="18">
@@ -4134,19 +4134,19 @@
         <v>78142</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>61982</v>
+        <v>61888</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>96567</v>
+        <v>96312</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1712937202634308</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1358686521125839</v>
+        <v>0.1356626979320531</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2116819317698351</v>
+        <v>0.2111239027258437</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>63</v>
@@ -4155,19 +4155,19 @@
         <v>63541</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>50727</v>
+        <v>51494</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>77027</v>
+        <v>79301</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2186275352280431</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1745382078017712</v>
+        <v>0.1771791027227429</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2650283944155801</v>
+        <v>0.2728558935558281</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>134</v>
@@ -4176,19 +4176,19 @@
         <v>141683</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>120739</v>
+        <v>119949</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>165336</v>
+        <v>162864</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1897142287363218</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1616694921972249</v>
+        <v>0.1606121415379125</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2213858293990035</v>
+        <v>0.2180756947562701</v>
       </c>
     </row>
     <row r="19">
@@ -4205,19 +4205,19 @@
         <v>131634</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>112618</v>
+        <v>111480</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>150021</v>
+        <v>151331</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2885516788229204</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2468676758204929</v>
+        <v>0.2443727006233986</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3288581110927493</v>
+        <v>0.3317291759907793</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>84</v>
@@ -4226,19 +4226,19 @@
         <v>81640</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>67055</v>
+        <v>67685</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>96155</v>
+        <v>97342</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2809029895319545</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2307199498127195</v>
+        <v>0.2328864601740657</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3308443121008584</v>
+        <v>0.3349289473724988</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>211</v>
@@ -4247,19 +4247,19 @@
         <v>213274</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>189450</v>
+        <v>188758</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>238030</v>
+        <v>236928</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2855751018029595</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2536744618944904</v>
+        <v>0.2527479924778247</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3187232781834618</v>
+        <v>0.3172469063556497</v>
       </c>
     </row>
     <row r="20">
@@ -4276,19 +4276,19 @@
         <v>214827</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>192009</v>
+        <v>195096</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>235170</v>
+        <v>238550</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4709174491645439</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4208996109642569</v>
+        <v>0.4276647696271244</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5155112488998804</v>
+        <v>0.5229201498197834</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>119</v>
@@ -4297,19 +4297,19 @@
         <v>120435</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>103175</v>
+        <v>103748</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>137341</v>
+        <v>136442</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.4143847941501873</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3549989137757753</v>
+        <v>0.3569689671674914</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4725547050178515</v>
+        <v>0.4694618148837016</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>321</v>
@@ -4318,19 +4318,19 @@
         <v>335262</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>308334</v>
+        <v>307828</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>362163</v>
+        <v>362824</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.4489171043483586</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4128609497757163</v>
+        <v>0.4121830447638523</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4849377097581977</v>
+        <v>0.4858229585591553</v>
       </c>
     </row>
     <row r="21">
@@ -4422,19 +4422,19 @@
         <v>9636</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>4227</v>
+        <v>5000</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>18570</v>
+        <v>18695</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03501958765688872</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01536235940605192</v>
+        <v>0.01817262637843228</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.06748951345219253</v>
+        <v>0.06794379939230412</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>7</v>
@@ -4443,19 +4443,19 @@
         <v>8302</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>3879</v>
+        <v>3320</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>16245</v>
+        <v>16448</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.04278140182555581</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.0199902102749053</v>
+        <v>0.01710867941917944</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.08371173732391496</v>
+        <v>0.08475566938530509</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>15</v>
@@ -4464,19 +4464,19 @@
         <v>17938</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>10027</v>
+        <v>10649</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>28355</v>
+        <v>30007</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.03822982095143714</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02136949363151588</v>
+        <v>0.02269505174588373</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.06043012114741019</v>
+        <v>0.06395263158825482</v>
       </c>
     </row>
     <row r="23">
@@ -4493,19 +4493,19 @@
         <v>9074</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>4120</v>
+        <v>4037</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>16957</v>
+        <v>16941</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.03297986805769926</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.01497397573600859</v>
+        <v>0.01467134585504661</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.06162732942714112</v>
+        <v>0.06156958649995567</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>7</v>
@@ -4514,19 +4514,19 @@
         <v>7190</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3287</v>
+        <v>2980</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>14112</v>
+        <v>14325</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.03705058268610514</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.01693944908318711</v>
+        <v>0.01535625494053898</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.07272101691782036</v>
+        <v>0.07381810257112417</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>15</v>
@@ -4535,19 +4535,19 @@
         <v>16265</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>9580</v>
+        <v>9460</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>26467</v>
+        <v>25727</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.03466348780802342</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.02041722069863486</v>
+        <v>0.02016122439050238</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.05640639596384767</v>
+        <v>0.05483129125755281</v>
       </c>
     </row>
     <row r="24">
@@ -4564,19 +4564,19 @@
         <v>43792</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>32095</v>
+        <v>31658</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>57287</v>
+        <v>58202</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1591558630556995</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1166472760739842</v>
+        <v>0.1150591532444619</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2082050849504136</v>
+        <v>0.2115272838838651</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>21</v>
@@ -4585,19 +4585,19 @@
         <v>22419</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>14576</v>
+        <v>14878</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>32355</v>
+        <v>32567</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1155258462410442</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.07510886063055407</v>
+        <v>0.07666701605673838</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1667220249080602</v>
+        <v>0.1678146084270913</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>59</v>
@@ -4606,19 +4606,19 @@
         <v>66211</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>51537</v>
+        <v>51016</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>82439</v>
+        <v>83880</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1411107862764179</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1098373421042216</v>
+        <v>0.1087275028827182</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1756956753721287</v>
+        <v>0.178768585326461</v>
       </c>
     </row>
     <row r="25">
@@ -4635,19 +4635,19 @@
         <v>65295</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>52191</v>
+        <v>50867</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>80801</v>
+        <v>80790</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2373070767446402</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1896828099582654</v>
+        <v>0.1848703664710492</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2936642247007265</v>
+        <v>0.2936232221941404</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>44</v>
@@ -4656,19 +4656,19 @@
         <v>45081</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>34003</v>
+        <v>33306</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>57289</v>
+        <v>57775</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2323006156958733</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1752151098239479</v>
+        <v>0.1716228101894947</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2952104761933888</v>
+        <v>0.2977139089505785</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>103</v>
@@ -4677,19 +4677,19 @@
         <v>110376</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>92636</v>
+        <v>91170</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>129745</v>
+        <v>129296</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2352364386699114</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1974282455743916</v>
+        <v>0.1943040196102065</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2765160785527612</v>
+        <v>0.2755591955905545</v>
       </c>
     </row>
     <row r="26">
@@ -4706,19 +4706,19 @@
         <v>147353</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>130080</v>
+        <v>129275</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>163977</v>
+        <v>162853</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.5355376044850724</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4727602698408678</v>
+        <v>0.4698376754354843</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5959588500711123</v>
+        <v>0.591870660269904</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>105</v>
@@ -4727,19 +4727,19 @@
         <v>111070</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>96955</v>
+        <v>95485</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>124274</v>
+        <v>125471</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.5723415535514216</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.4996066036604194</v>
+        <v>0.4920328135348772</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6403805944138405</v>
+        <v>0.6465490267024557</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>241</v>
@@ -4748,19 +4748,19 @@
         <v>258423</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>235746</v>
+        <v>235292</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>280599</v>
+        <v>281662</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.5507594662942101</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.5024286025209596</v>
+        <v>0.5014630019051169</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5980216970011059</v>
+        <v>0.6002877202780824</v>
       </c>
     </row>
     <row r="27">
@@ -4852,19 +4852,19 @@
         <v>49355</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>36188</v>
+        <v>35897</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>67258</v>
+        <v>65610</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.03487040196607667</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.02556744484938436</v>
+        <v>0.02536184139698749</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.04751923975475486</v>
+        <v>0.04635503078741456</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>44</v>
@@ -4873,19 +4873,19 @@
         <v>46838</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>33632</v>
+        <v>33499</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>60145</v>
+        <v>61553</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.04538621256217294</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.03258958843178725</v>
+        <v>0.03246082091030787</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.05828077450834668</v>
+        <v>0.05964547595355688</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>86</v>
@@ -4894,19 +4894,19 @@
         <v>96193</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>77378</v>
+        <v>77810</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>120029</v>
+        <v>116540</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.03930459684642829</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.03161665337334103</v>
+        <v>0.03179335305062499</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.04904399767878819</v>
+        <v>0.04761825182345508</v>
       </c>
     </row>
     <row r="29">
@@ -4923,19 +4923,19 @@
         <v>82695</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>66955</v>
+        <v>65799</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>104082</v>
+        <v>101440</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.0584252694761962</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.04730483462180902</v>
+        <v>0.04648792155463849</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.0735359137504393</v>
+        <v>0.07166937672434226</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>64</v>
@@ -4944,19 +4944,19 @@
         <v>66098</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>52096</v>
+        <v>51244</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>84397</v>
+        <v>82684</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.06404919617681691</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.05048132526387975</v>
+        <v>0.04965605034307467</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.08178173934134048</v>
+        <v>0.08012187809973255</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>139</v>
@@ -4965,19 +4965,19 @@
         <v>148792</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>127229</v>
+        <v>125271</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>173782</v>
+        <v>175725</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.06079670691846267</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.05198614218667735</v>
+        <v>0.05118601975182784</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.07100745214578071</v>
+        <v>0.07180148785978205</v>
       </c>
     </row>
     <row r="30">
@@ -4994,19 +4994,19 @@
         <v>316373</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>282376</v>
+        <v>285413</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>347989</v>
+        <v>348609</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2235232347426075</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.199504314461667</v>
+        <v>0.2016498713595203</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2458607995788471</v>
+        <v>0.2462987509990158</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>238</v>
@@ -5015,19 +5015,19 @@
         <v>244633</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>216677</v>
+        <v>216618</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>271843</v>
+        <v>272337</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.237051194728068</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2099617519826733</v>
+        <v>0.2099048894501001</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2634181683474447</v>
+        <v>0.2638968254105629</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>525</v>
@@ -5036,19 +5036,19 @@
         <v>561005</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>519300</v>
+        <v>521816</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>606675</v>
+        <v>608243</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2292275606584241</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2121869717744988</v>
+        <v>0.2132146438160298</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2478883640411626</v>
+        <v>0.2485289753726171</v>
       </c>
     </row>
     <row r="31">
@@ -5065,19 +5065,19 @@
         <v>392432</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>358830</v>
+        <v>360458</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>428134</v>
+        <v>425595</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2772608129293376</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.25352045033587</v>
+        <v>0.2546702328022892</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3024848324862285</v>
+        <v>0.3006909938128562</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>270</v>
@@ -5086,19 +5086,19 @@
         <v>270842</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>243192</v>
+        <v>243588</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>300671</v>
+        <v>298998</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2624484117512182</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2356556187297758</v>
+        <v>0.2360393089462461</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2913529468430154</v>
+        <v>0.2897315736914663</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>645</v>
@@ -5107,19 +5107,19 @@
         <v>663274</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>619726</v>
+        <v>619161</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>709418</v>
+        <v>708902</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2710148775476074</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2532208851476976</v>
+        <v>0.2529903050671317</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2898691467795746</v>
+        <v>0.2896584829484075</v>
       </c>
     </row>
     <row r="32">
@@ -5136,19 +5136,19 @@
         <v>574536</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>539903</v>
+        <v>535802</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>612576</v>
+        <v>612399</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.405920280885782</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.3814520815594892</v>
+        <v>0.3785542931216037</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.4327966757869434</v>
+        <v>0.43267129176161</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>392</v>
@@ -5157,19 +5157,19 @@
         <v>403572</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>374554</v>
+        <v>374865</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>436516</v>
+        <v>436857</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.3910649847817239</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.3629459364417841</v>
+        <v>0.3632479141811134</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.4229876113176744</v>
+        <v>0.4233181809406992</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>929</v>
@@ -5178,19 +5178,19 @@
         <v>978108</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>928293</v>
+        <v>928841</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1024679</v>
+        <v>1026098</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.3996562580290776</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.3793019827302561</v>
+        <v>0.3795257659870906</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.4186856292644102</v>
+        <v>0.4192650919588025</v>
       </c>
     </row>
     <row r="33">
